--- a/data/trans_orig/Q25_A_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>23945</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16112</v>
+        <v>15797</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33912</v>
+        <v>33493</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1876177876257584</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1262398854960905</v>
+        <v>0.1237698959908073</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2657083142128164</v>
+        <v>0.2624278704153427</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3942</v>
+        <v>5769</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02284306205871949</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09488679738631679</v>
+        <v>0.1388689940852814</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -786,19 +786,19 @@
         <v>24894</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16446</v>
+        <v>16866</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35232</v>
+        <v>35400</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1471552447003422</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09721755170061123</v>
+        <v>0.09969879201611107</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2082638513477716</v>
+        <v>0.2092530479557793</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>38543</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28224</v>
+        <v>28970</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48814</v>
+        <v>48698</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3019910619578747</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2211386610171455</v>
+        <v>0.2269828884534145</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3824687830399417</v>
+        <v>0.3815566632836911</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -836,19 +836,19 @@
         <v>6256</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2117</v>
+        <v>2779</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11598</v>
+        <v>11736</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1506007650951691</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05094961827409427</v>
+        <v>0.06688874288308279</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2791979964920474</v>
+        <v>0.2825188513192089</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -857,19 +857,19 @@
         <v>44799</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33883</v>
+        <v>34689</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57234</v>
+        <v>57026</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2648152368171039</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2002866788681538</v>
+        <v>0.2050526652250567</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3383201504683364</v>
+        <v>0.3370902091861011</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>39786</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30055</v>
+        <v>29720</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50529</v>
+        <v>50462</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3117329919032529</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2354907162235218</v>
+        <v>0.232861617061391</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3959020490894311</v>
+        <v>0.3953804985430661</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -907,19 +907,19 @@
         <v>18485</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12262</v>
+        <v>12325</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24742</v>
+        <v>25351</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4449778663155943</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2951592932601434</v>
+        <v>0.2966818763173085</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5955917448761978</v>
+        <v>0.610258780544634</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>58</v>
@@ -928,19 +928,19 @@
         <v>58271</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46926</v>
+        <v>45293</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>71815</v>
+        <v>68796</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3444529763058823</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2773862916042715</v>
+        <v>0.2677374369226745</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4245088317583145</v>
+        <v>0.4066638670301427</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>25355</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17492</v>
+        <v>17949</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35640</v>
+        <v>35009</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1986581585131139</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1370568068508805</v>
+        <v>0.1406379804207948</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2792440573941077</v>
+        <v>0.2743050117162243</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -978,19 +978,19 @@
         <v>15852</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10059</v>
+        <v>10442</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22361</v>
+        <v>22595</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3815783065305171</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2421471365699287</v>
+        <v>0.2513697651371853</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5382791974706119</v>
+        <v>0.5439157113416735</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -999,19 +999,19 @@
         <v>41206</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31130</v>
+        <v>30799</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53034</v>
+        <v>51842</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2435765421766715</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.184016756117176</v>
+        <v>0.182058094747218</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3134939420875846</v>
+        <v>0.3064482459947798</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>19961</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11780</v>
+        <v>12395</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30144</v>
+        <v>30394</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1080752422615375</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06377971899295165</v>
+        <v>0.06711195573833538</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1632090591179254</v>
+        <v>0.1645667523609323</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1124,19 +1124,19 @@
         <v>4381</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10118</v>
+        <v>10023</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05604174384732915</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01468539679027104</v>
+        <v>0.01452360911843995</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1294249575844238</v>
+        <v>0.1282192794036484</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>22</v>
@@ -1145,19 +1145,19 @@
         <v>24342</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>15218</v>
+        <v>15999</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>37345</v>
+        <v>35433</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09260097162771577</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05789058481476655</v>
+        <v>0.06086255074645035</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1420665697577994</v>
+        <v>0.1347926990466129</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>53147</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41841</v>
+        <v>40500</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67364</v>
+        <v>65766</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.287759314859428</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2265445567120461</v>
+        <v>0.219282870621567</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3647369020047749</v>
+        <v>0.3560844813035327</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1195,19 +1195,19 @@
         <v>10792</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5468</v>
+        <v>5411</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18701</v>
+        <v>18344</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1380494490737296</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06995015884274879</v>
+        <v>0.06922054247508962</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2392225163642809</v>
+        <v>0.2346499127687932</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -1216,19 +1216,19 @@
         <v>63939</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50812</v>
+        <v>50106</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79955</v>
+        <v>79475</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2432370157574242</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1933009843012682</v>
+        <v>0.19061354352205</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3041643283850148</v>
+        <v>0.3023397093541542</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>64518</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>53177</v>
+        <v>51192</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>79043</v>
+        <v>77597</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3493273101840094</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2879194137045779</v>
+        <v>0.2771738059362642</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4279715534620939</v>
+        <v>0.4201402296651115</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -1266,19 +1266,19 @@
         <v>36829</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>28346</v>
+        <v>27309</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46158</v>
+        <v>45001</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4711198614418269</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3626037372599293</v>
+        <v>0.3493410057665348</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5904490832981517</v>
+        <v>0.5756466284440898</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>97</v>
@@ -1287,19 +1287,19 @@
         <v>101348</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>87335</v>
+        <v>85599</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>119370</v>
+        <v>117842</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3855472638058948</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3322408348558908</v>
+        <v>0.3256380468846042</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4541083197435212</v>
+        <v>0.4482953575792263</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>47067</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35169</v>
+        <v>35246</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>60005</v>
+        <v>59879</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2548381326950251</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1904184409433756</v>
+        <v>0.1908371464490516</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3248914594083387</v>
+        <v>0.3242073652244835</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -1337,19 +1337,19 @@
         <v>26172</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18229</v>
+        <v>18761</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35463</v>
+        <v>35565</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3347889456371144</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.233187027726923</v>
+        <v>0.2399921301625207</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4536387788132307</v>
+        <v>0.4549466944042972</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>67</v>
@@ -1358,19 +1358,19 @@
         <v>73239</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>58273</v>
+        <v>58062</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>89360</v>
+        <v>87444</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2786147488089653</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.221684024010246</v>
+        <v>0.2208786264642997</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3399437336060965</v>
+        <v>0.3326566473269013</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>8347</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3744</v>
+        <v>3767</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15227</v>
+        <v>15785</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06354497078447939</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02850444151539234</v>
+        <v>0.02867315228941641</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1159182230639438</v>
+        <v>0.1201679134668886</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6861</v>
+        <v>5878</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04808703077630157</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.172885981151985</v>
+        <v>0.1481201501829182</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1504,19 +1504,19 @@
         <v>10256</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4764</v>
+        <v>4746</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17685</v>
+        <v>18852</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05995868015125733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02785271816234831</v>
+        <v>0.02774823555531055</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1033950202406702</v>
+        <v>0.1102175309745652</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>37146</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>27184</v>
+        <v>27890</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>47390</v>
+        <v>47209</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2827793946280233</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2069405539993981</v>
+        <v>0.2123126388826999</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3607591324701433</v>
+        <v>0.3593795799342472</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>7</v>
@@ -1554,19 +1554,19 @@
         <v>6853</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2919</v>
+        <v>3084</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>12125</v>
+        <v>13387</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1726838743003595</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07354980909073147</v>
+        <v>0.07771051827210074</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.305549176219879</v>
+        <v>0.3373417517308824</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>44</v>
@@ -1575,19 +1575,19 @@
         <v>43999</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>33400</v>
+        <v>34257</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>55950</v>
+        <v>57838</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2572368881166817</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1952719885089026</v>
+        <v>0.2002801654571586</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3271049064996808</v>
+        <v>0.3381447357719993</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>49766</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39406</v>
+        <v>39783</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62084</v>
+        <v>61463</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.378846489729516</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2999838811618604</v>
+        <v>0.3028503895635519</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4726197180943162</v>
+        <v>0.4678873365981708</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1625,19 +1625,19 @@
         <v>11823</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6981</v>
+        <v>6689</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18446</v>
+        <v>17801</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.297932622455285</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1759109600076338</v>
+        <v>0.1685564777331229</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4648435135177228</v>
+        <v>0.4485868961718275</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>60</v>
@@ -1646,19 +1646,19 @@
         <v>61589</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50050</v>
+        <v>49551</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75364</v>
+        <v>74919</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3600742183822452</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2926131858573904</v>
+        <v>0.2896985748099554</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4406120296818802</v>
+        <v>0.4380088956191903</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>36102</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26169</v>
+        <v>26808</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>46721</v>
+        <v>46185</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2748291448579813</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1992106230319987</v>
+        <v>0.204078759949948</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3556657501231424</v>
+        <v>0.3515892144307363</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -1696,19 +1696,19 @@
         <v>19099</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13168</v>
+        <v>12374</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24847</v>
+        <v>25436</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4812964724680538</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3318309201016966</v>
+        <v>0.3118294961039235</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6261296404289763</v>
+        <v>0.6409686068606176</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>54</v>
@@ -1717,19 +1717,19 @@
         <v>55201</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42898</v>
+        <v>42290</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>67477</v>
+        <v>66123</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3227302133498158</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2507979354327841</v>
+        <v>0.2472476947373735</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3944982878739968</v>
+        <v>0.3865850971216736</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>13876</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8136</v>
+        <v>8229</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21822</v>
+        <v>23152</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08197820101205885</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04807035030657816</v>
+        <v>0.04861498154336409</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1289226634597214</v>
+        <v>0.1367845324609367</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5765</v>
+        <v>5831</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01310313555638563</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06472345836294079</v>
+        <v>0.06545927462855197</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -1863,19 +1863,19 @@
         <v>15043</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9230</v>
+        <v>8717</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24117</v>
+        <v>23535</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05822965893675284</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0357279373937868</v>
+        <v>0.03374406428117444</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09335645407122867</v>
+        <v>0.09110228476471363</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>44084</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32432</v>
+        <v>33631</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>55123</v>
+        <v>55700</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2604497030497652</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1916122274827032</v>
+        <v>0.1986947876017279</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3256703703540255</v>
+        <v>0.3290748784745641</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -1913,19 +1913,19 @@
         <v>16160</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9654</v>
+        <v>9991</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25343</v>
+        <v>26215</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1814157546529343</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1083834884384689</v>
+        <v>0.1121637742988982</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2845126552675083</v>
+        <v>0.2942989553908465</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>60</v>
@@ -1934,19 +1934,19 @@
         <v>60244</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>46669</v>
+        <v>48330</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>73852</v>
+        <v>75143</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2331983162603375</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1806508814734654</v>
+        <v>0.1870806895431292</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2858753649422181</v>
+        <v>0.2908713073590843</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>74223</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>62625</v>
+        <v>61562</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>86663</v>
+        <v>87105</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4385119532058892</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3699885735639435</v>
+        <v>0.3637112824942066</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5120100518103193</v>
+        <v>0.5146223397270019</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>37</v>
@@ -1984,19 +1984,19 @@
         <v>38781</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>29475</v>
+        <v>29812</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>48416</v>
+        <v>47894</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4353677549280236</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3308924167663333</v>
+        <v>0.3346824192516942</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5435345939298641</v>
+        <v>0.5376760436862698</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>118</v>
@@ -2005,19 +2005,19 @@
         <v>113004</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>97477</v>
+        <v>96573</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>128899</v>
+        <v>130704</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4374278144889097</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3773237844147111</v>
+        <v>0.3738265205061152</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4989562504389911</v>
+        <v>0.5059452493535305</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>37078</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27444</v>
+        <v>27712</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47899</v>
+        <v>48499</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2190601427322867</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.162138809922014</v>
+        <v>0.1637236762193698</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2829906954561587</v>
+        <v>0.2865311188486975</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -2055,19 +2055,19 @@
         <v>32968</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24111</v>
+        <v>24933</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41787</v>
+        <v>42473</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3701133548626565</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2706761580560334</v>
+        <v>0.2799107507551558</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4691145107480232</v>
+        <v>0.4768208323893214</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>73</v>
@@ -2076,19 +2076,19 @@
         <v>70047</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>56648</v>
+        <v>56357</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>84171</v>
+        <v>84767</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.271144210314</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2192806688011827</v>
+        <v>0.2181513749957196</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3258202677909733</v>
+        <v>0.3281239934044795</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>66129</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>53447</v>
+        <v>51599</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>83336</v>
+        <v>83769</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1078878753268473</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08719714846621861</v>
+        <v>0.08418183603831657</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1359595377953216</v>
+        <v>0.1366664497562358</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -2201,19 +2201,19 @@
         <v>8405</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4034</v>
+        <v>3954</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16489</v>
+        <v>16771</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03382779566640107</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01623674827193102</v>
+        <v>0.01591417573145694</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06636277779096979</v>
+        <v>0.06749672876554436</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>73</v>
@@ -2222,19 +2222,19 @@
         <v>74535</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>58814</v>
+        <v>59707</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>92903</v>
+        <v>92992</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08652534532120952</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06827603360279984</v>
+        <v>0.06931266080273349</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1078485529302137</v>
+        <v>0.1079516460386144</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>172920</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>150453</v>
+        <v>152155</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>194692</v>
+        <v>196145</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.282114044494491</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2454598591080295</v>
+        <v>0.2482368001806781</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3176341417474176</v>
+        <v>0.3200050907737909</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -2272,19 +2272,19 @@
         <v>40061</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>28872</v>
+        <v>29276</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>51356</v>
+        <v>51769</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1612256246048615</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1161963496199708</v>
+        <v>0.1178238716805018</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2066847717070669</v>
+        <v>0.2083453993645143</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>210</v>
@@ -2293,19 +2293,19 @@
         <v>212981</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>188804</v>
+        <v>187436</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>237538</v>
+        <v>236461</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2472439429625102</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.219177511889787</v>
+        <v>0.217589816164109</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2757523515975455</v>
+        <v>0.2745011634085101</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>228293</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>205894</v>
+        <v>206227</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>252941</v>
+        <v>252081</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3724534508404155</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3359101442112331</v>
+        <v>0.3364529348842248</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4126663120872825</v>
+        <v>0.4112620074654341</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>101</v>
@@ -2343,19 +2343,19 @@
         <v>105918</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>90168</v>
+        <v>90392</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>121768</v>
+        <v>121043</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4262734608144993</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.362886952229825</v>
+        <v>0.3637859037539991</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4900596359361657</v>
+        <v>0.487141880924256</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>333</v>
@@ -2364,19 +2364,19 @@
         <v>334211</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>305203</v>
+        <v>307280</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>362517</v>
+        <v>362061</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3879777600667413</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3543021675627721</v>
+        <v>0.3567137842092363</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4208370685928686</v>
+        <v>0.4203076743454597</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>145602</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>124538</v>
+        <v>124726</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>168663</v>
+        <v>168155</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2375446293382462</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2031807691993537</v>
+        <v>0.203486756068087</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2751687751551213</v>
+        <v>0.2743395467585525</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>94</v>
@@ -2414,19 +2414,19 @@
         <v>94091</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>79778</v>
+        <v>77509</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>110082</v>
+        <v>109796</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3786731189142381</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3210724705095344</v>
+        <v>0.3119388067854633</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4430311212792322</v>
+        <v>0.4418790576799023</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>235</v>
@@ -2435,19 +2435,19 @@
         <v>239692</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>214068</v>
+        <v>211155</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>268305</v>
+        <v>267258</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.278252951649539</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2485066853999754</v>
+        <v>0.2451247979017531</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3114687061958223</v>
+        <v>0.3102532536489335</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>41321</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30749</v>
+        <v>29814</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54128</v>
+        <v>54355</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2138441399747402</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1591298632428547</v>
+        <v>0.1542926080396879</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.280122160851229</v>
+        <v>0.2812964654886611</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2800,19 +2800,19 @@
         <v>6349</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2125</v>
+        <v>2168</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12543</v>
+        <v>12665</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08633908413548486</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02888948776890685</v>
+        <v>0.02947969142137616</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.170566693711116</v>
+        <v>0.1722260009835491</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -2821,19 +2821,19 @@
         <v>47670</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35738</v>
+        <v>35251</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62162</v>
+        <v>62382</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.178695411019671</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1339674801169898</v>
+        <v>0.1321413030879691</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2330163567313654</v>
+        <v>0.2338438443956187</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>41444</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30724</v>
+        <v>31274</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52984</v>
+        <v>53551</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2144786262875636</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1590024177350777</v>
+        <v>0.1618496869331497</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2742023431775278</v>
+        <v>0.2771370475242238</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -2871,19 +2871,19 @@
         <v>8082</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3262</v>
+        <v>3286</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15128</v>
+        <v>15546</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1099009307110065</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04435432816702512</v>
+        <v>0.04468577931675448</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2057085462576621</v>
+        <v>0.2114019161563389</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>47</v>
@@ -2892,19 +2892,19 @@
         <v>49526</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37795</v>
+        <v>36400</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62681</v>
+        <v>63320</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1856501766831796</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1416760779516564</v>
+        <v>0.1364493827915846</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2349641322681305</v>
+        <v>0.2373575219948935</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>63167</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49670</v>
+        <v>50531</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>76327</v>
+        <v>76784</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.326902335966145</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2570501140128191</v>
+        <v>0.2615066566225074</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3950053281816612</v>
+        <v>0.3973731558627938</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -2942,19 +2942,19 @@
         <v>30466</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22341</v>
+        <v>22056</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39918</v>
+        <v>39291</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4142820167723522</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3038025129417738</v>
+        <v>0.2999169305781583</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5428171548584372</v>
+        <v>0.5342893177751171</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>88</v>
@@ -2963,19 +2963,19 @@
         <v>93633</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>77222</v>
+        <v>78900</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>107842</v>
+        <v>112236</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3509898883900253</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2894709337075373</v>
+        <v>0.2957622328890798</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4042522361280728</v>
+        <v>0.420721894982024</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>47298</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36196</v>
+        <v>36083</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61894</v>
+        <v>58933</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2447748977715511</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1873194950253067</v>
+        <v>0.1867381869681125</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3203146226380691</v>
+        <v>0.3049867408251835</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -3013,19 +3013,19 @@
         <v>28642</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19965</v>
+        <v>20331</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37623</v>
+        <v>37931</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3894779683811564</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2714834592839935</v>
+        <v>0.2764637963917643</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5116025014249291</v>
+        <v>0.5157945951830027</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>75</v>
@@ -3034,19 +3034,19 @@
         <v>75940</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>60808</v>
+        <v>62314</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91929</v>
+        <v>92751</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2846645239071242</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2279441148657022</v>
+        <v>0.2335890409419455</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3446006004661666</v>
+        <v>0.3476825440268444</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>43854</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>32117</v>
+        <v>31029</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>58935</v>
+        <v>59178</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1708583002680888</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1251293856855855</v>
+        <v>0.1208903415643073</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2296131144555201</v>
+        <v>0.2305598710933846</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -3159,19 +3159,19 @@
         <v>3179</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7455</v>
+        <v>8409</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03233660669740723</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009976119769705381</v>
+        <v>0.009956764838093832</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07581941429632207</v>
+        <v>0.0855246290526846</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>40</v>
@@ -3180,19 +3180,19 @@
         <v>47034</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>34231</v>
+        <v>34481</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>61182</v>
+        <v>63414</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1324924949073346</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09642774583904788</v>
+        <v>0.09713172147409727</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.172347913315799</v>
+        <v>0.1786341127420802</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>66188</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51477</v>
+        <v>50968</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81680</v>
+        <v>81627</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2578718181500362</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2005548387104025</v>
+        <v>0.198571960915701</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3182271839663888</v>
+        <v>0.3180228052719146</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -3230,19 +3230,19 @@
         <v>24163</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15966</v>
+        <v>16556</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33589</v>
+        <v>34514</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2457593244494159</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.162385041352906</v>
+        <v>0.1683847593974825</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.341621188604743</v>
+        <v>0.351029917277819</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -3251,19 +3251,19 @@
         <v>90352</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>73797</v>
+        <v>75957</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>107016</v>
+        <v>111181</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2545170686969172</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2078847092545569</v>
+        <v>0.2139680260640282</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3014611448075711</v>
+        <v>0.3131916998478721</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>77199</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63013</v>
+        <v>62844</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93866</v>
+        <v>93635</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3007711817728739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2455024175680964</v>
+        <v>0.2448429789503782</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3657048423196647</v>
+        <v>0.3648059268452084</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -3301,19 +3301,19 @@
         <v>29410</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20796</v>
+        <v>20561</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38153</v>
+        <v>39088</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2991253286443475</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2115128349247015</v>
+        <v>0.2091223260632728</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3880418112220896</v>
+        <v>0.3975513846453767</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>100</v>
@@ -3322,19 +3322,19 @@
         <v>106610</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>87201</v>
+        <v>89236</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>125046</v>
+        <v>125353</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3003153363442356</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2456423000349263</v>
+        <v>0.2513746715109837</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3522508440144252</v>
+        <v>0.3531152052214277</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>69429</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54621</v>
+        <v>55566</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>84221</v>
+        <v>85080</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2704986998090011</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2128048499239314</v>
+        <v>0.2164878595640938</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3281268315416567</v>
+        <v>0.3314742282708479</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>38</v>
@@ -3372,19 +3372,19 @@
         <v>41568</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32148</v>
+        <v>32297</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52800</v>
+        <v>52127</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4227787402088293</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3269662726277158</v>
+        <v>0.328483183808172</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5370212628403271</v>
+        <v>0.5301748654611418</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>105</v>
@@ -3393,19 +3393,19 @@
         <v>110997</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>93166</v>
+        <v>92929</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>129348</v>
+        <v>128492</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3126751000515126</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2624448163713619</v>
+        <v>0.2617767324916094</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3643674242012189</v>
+        <v>0.3619561080176555</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>27779</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18149</v>
+        <v>18814</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39427</v>
+        <v>40401</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1601142794630977</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1046085182302407</v>
+        <v>0.1084398076290829</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2272540012230352</v>
+        <v>0.2328650715238125</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7561</v>
+        <v>7645</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0200978068987326</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0705054382243194</v>
+        <v>0.07128490169542727</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -3539,19 +3539,19 @@
         <v>29934</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20094</v>
+        <v>20589</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43753</v>
+        <v>44440</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.106627981933447</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07157460952403924</v>
+        <v>0.07333762612397365</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1558515378873578</v>
+        <v>0.1582966488841822</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>51766</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>39042</v>
+        <v>39928</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>65799</v>
+        <v>65819</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2983719300530251</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2250321544291897</v>
+        <v>0.2301393169667072</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3792566275188239</v>
+        <v>0.3793733116123776</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>15</v>
@@ -3589,19 +3589,19 @@
         <v>16683</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>10053</v>
+        <v>9266</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>26110</v>
+        <v>26361</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1555648866397963</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09374321045755188</v>
+        <v>0.0864019099372999</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2434727073782408</v>
+        <v>0.245814034412679</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>60</v>
@@ -3610,19 +3610,19 @@
         <v>68449</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>52633</v>
+        <v>53745</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>85782</v>
+        <v>84879</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2438196343592564</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1874835973800382</v>
+        <v>0.1914445847812789</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3055598988788389</v>
+        <v>0.302345163369286</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>43128</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31297</v>
+        <v>31542</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55940</v>
+        <v>55747</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.248584203714469</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1803925456899872</v>
+        <v>0.1818017862865441</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3224323439431195</v>
+        <v>0.3213192523338547</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -3660,19 +3660,19 @@
         <v>47926</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37021</v>
+        <v>37777</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>58934</v>
+        <v>59284</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4468974830459017</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3452087107690545</v>
+        <v>0.3522630172641505</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5495426711064344</v>
+        <v>0.5528105115708362</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>81</v>
@@ -3681,19 +3681,19 @@
         <v>91054</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>74513</v>
+        <v>75251</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>110236</v>
+        <v>109472</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3243398835151133</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2654195382118293</v>
+        <v>0.2680478521353757</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3926693683510235</v>
+        <v>0.3899465067873178</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>50822</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39216</v>
+        <v>38754</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63880</v>
+        <v>63757</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2929295867694081</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2260335775010044</v>
+        <v>0.2233752886889893</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3681963397972466</v>
+        <v>0.3674850677658158</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>37</v>
@@ -3731,19 +3731,19 @@
         <v>40477</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31089</v>
+        <v>30636</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>51653</v>
+        <v>51362</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3774398234155694</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2899017486123585</v>
+        <v>0.2856772752714167</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4816545954401805</v>
+        <v>0.4789404573651569</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>84</v>
@@ -3752,19 +3752,19 @@
         <v>91299</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>74589</v>
+        <v>75786</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>107868</v>
+        <v>110405</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3252125001921833</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2656891592221065</v>
+        <v>0.2699547804122748</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3842327892256466</v>
+        <v>0.393271372160381</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>31494</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22390</v>
+        <v>22028</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43104</v>
+        <v>42998</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1540427821391047</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1095127364153225</v>
+        <v>0.1077435751456503</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2108294266093719</v>
+        <v>0.2103141634671971</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -3877,19 +3877,19 @@
         <v>10941</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5154</v>
+        <v>5737</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18782</v>
+        <v>20049</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09767270038682925</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04601510632767013</v>
+        <v>0.05122017678045063</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1676699216738941</v>
+        <v>0.1789863125579903</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -3898,19 +3898,19 @@
         <v>42435</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31105</v>
+        <v>30147</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>56580</v>
+        <v>56558</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1340899516918765</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09828891987284205</v>
+        <v>0.09526077530408657</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1787888554542288</v>
+        <v>0.1787173359682986</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>44865</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33953</v>
+        <v>33614</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>58358</v>
+        <v>57818</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2194469741805122</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1660735010179823</v>
+        <v>0.1644126023873486</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2854405418111068</v>
+        <v>0.2828023638922383</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -3948,19 +3948,19 @@
         <v>23908</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15390</v>
+        <v>15391</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>34632</v>
+        <v>33734</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2134298896091371</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1373937827280626</v>
+        <v>0.1373992537350784</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3091665673127414</v>
+        <v>0.3011562573126472</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>62</v>
@@ -3969,19 +3969,19 @@
         <v>68773</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>53446</v>
+        <v>54937</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>85977</v>
+        <v>86205</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.217317158780086</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1688848651769604</v>
+        <v>0.173595814492501</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2716786997800184</v>
+        <v>0.2724000224633839</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>73434</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>59561</v>
+        <v>59765</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>87074</v>
+        <v>87950</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3591836848734744</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2913264146931737</v>
+        <v>0.2923215277309045</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4258971082472021</v>
+        <v>0.4301805628028481</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>45</v>
@@ -4019,19 +4019,19 @@
         <v>45451</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>35001</v>
+        <v>35866</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>55444</v>
+        <v>56476</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4057530800471618</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3124605711086926</v>
+        <v>0.3201823409343736</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4949619099072094</v>
+        <v>0.5041782256691357</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>117</v>
@@ -4040,19 +4040,19 @@
         <v>118885</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>101772</v>
+        <v>102433</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>136037</v>
+        <v>138216</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3756674510318062</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3215904020106214</v>
+        <v>0.3236795576957978</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4298653965497217</v>
+        <v>0.4367504961827838</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>54654</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43249</v>
+        <v>41646</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68966</v>
+        <v>68504</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2673265588069086</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2115425442794024</v>
+        <v>0.2036988546206978</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3373290888118918</v>
+        <v>0.3350683049220028</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -4090,19 +4090,19 @@
         <v>31717</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22723</v>
+        <v>22840</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42234</v>
+        <v>43768</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2831443299568719</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2028592849684347</v>
+        <v>0.2038964787370386</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3770343045550379</v>
+        <v>0.3907304529525286</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>79</v>
@@ -4111,19 +4111,19 @@
         <v>86371</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>71720</v>
+        <v>69884</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>104008</v>
+        <v>102721</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2729254384962314</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2266297937913343</v>
+        <v>0.2208274275221984</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3286558713036574</v>
+        <v>0.3245912220535128</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>144448</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>122444</v>
+        <v>123437</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>169702</v>
+        <v>169890</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1744872810217812</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1479071091804561</v>
+        <v>0.1491062284475008</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2049932602762478</v>
+        <v>0.205220052004365</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -4236,19 +4236,19 @@
         <v>22625</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14671</v>
+        <v>14194</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>33266</v>
+        <v>32921</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05784682357950875</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03750974581204088</v>
+        <v>0.03629045797449933</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08505421287333445</v>
+        <v>0.08417052212498317</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>146</v>
@@ -4257,19 +4257,19 @@
         <v>167073</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>141407</v>
+        <v>143496</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>191811</v>
+        <v>192508</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1370619204849919</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1160064578666863</v>
+        <v>0.1177195437144644</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.157355968579327</v>
+        <v>0.1579278469405433</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>204263</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>181214</v>
+        <v>181004</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>230114</v>
+        <v>234646</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2467414684490753</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2188987042940514</v>
+        <v>0.2186454014803156</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2779676042342413</v>
+        <v>0.283442814931583</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>63</v>
@@ -4307,19 +4307,19 @@
         <v>72836</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>57770</v>
+        <v>57344</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>91077</v>
+        <v>91222</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1862250253116924</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1477062019224077</v>
+        <v>0.1466169441404069</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2328635292565864</v>
+        <v>0.2332348513851835</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>249</v>
@@ -4328,19 +4328,19 @@
         <v>277099</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>245045</v>
+        <v>247733</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>307305</v>
+        <v>311000</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.227324108876891</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2010276859855856</v>
+        <v>0.203233156625327</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2521036846477535</v>
+        <v>0.2551349704303161</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>256929</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>230942</v>
+        <v>229543</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>283604</v>
+        <v>283157</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3103593066666653</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2789680995639077</v>
+        <v>0.2772784449067887</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3425811737688066</v>
+        <v>0.3420409163967627</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>142</v>
@@ -4378,19 +4378,19 @@
         <v>153253</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>132222</v>
+        <v>131139</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>172557</v>
+        <v>173973</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3918336550335439</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3380628005485786</v>
+        <v>0.3352923098425138</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.441190990539881</v>
+        <v>0.4448094504286804</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>386</v>
@@ -4399,19 +4399,19 @@
         <v>410182</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>379722</v>
+        <v>377615</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>442914</v>
+        <v>446433</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3365012382827988</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3115127825775967</v>
+        <v>0.3097842883678782</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3633540003395743</v>
+        <v>0.3662407615972035</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>222203</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>193403</v>
+        <v>193998</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>246367</v>
+        <v>247068</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2684119438624782</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.233622780782563</v>
+        <v>0.2343413397403316</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2976004358509413</v>
+        <v>0.2984479517284522</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>132</v>
@@ -4449,19 +4449,19 @@
         <v>142404</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>123209</v>
+        <v>125088</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>162675</v>
+        <v>164512</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3640944960752549</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3150182362868461</v>
+        <v>0.3198234149856945</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.415923132293976</v>
+        <v>0.4206206050259827</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>343</v>
@@ -4470,19 +4470,19 @@
         <v>364607</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>331366</v>
+        <v>331613</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>396605</v>
+        <v>397543</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2991127323553184</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2718429117237569</v>
+        <v>0.272045604986772</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3253630244229864</v>
+        <v>0.3261322665129968</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>28457</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19874</v>
+        <v>20528</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38285</v>
+        <v>38363</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2098706716878351</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.14657361987335</v>
+        <v>0.1513936173060862</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2823503157998815</v>
+        <v>0.2829240706300269</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -4835,19 +4835,19 @@
         <v>6949</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2542</v>
+        <v>2434</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14731</v>
+        <v>14464</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1095458142660573</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04007805954012426</v>
+        <v>0.03837210617190727</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2322329763566608</v>
+        <v>0.2280231345938229</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -4856,19 +4856,19 @@
         <v>35406</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25514</v>
+        <v>26346</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48259</v>
+        <v>47697</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.177895272544971</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1281954149852329</v>
+        <v>0.1323752401820126</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2424736281736367</v>
+        <v>0.2396499711739413</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>39076</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29165</v>
+        <v>29452</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50120</v>
+        <v>50965</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2881824279007981</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2150929421859551</v>
+        <v>0.2172121265885665</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3696339220119182</v>
+        <v>0.3758638002133142</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -4906,19 +4906,19 @@
         <v>9675</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4796</v>
+        <v>4957</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16418</v>
+        <v>16199</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1525252386007038</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07560962795768723</v>
+        <v>0.07814817904973459</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2588136574056721</v>
+        <v>0.2553745930444296</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>48</v>
@@ -4927,19 +4927,19 @@
         <v>48751</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37469</v>
+        <v>38250</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62693</v>
+        <v>62550</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2449459570406064</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1882632002478185</v>
+        <v>0.1921862850643038</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.314996703751129</v>
+        <v>0.3142777280343517</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>43861</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33760</v>
+        <v>33267</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>54794</v>
+        <v>54369</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3234737913623542</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2489800750490475</v>
+        <v>0.2453411806600948</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4041097265334994</v>
+        <v>0.4009709557218445</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -4977,19 +4977,19 @@
         <v>23030</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16101</v>
+        <v>16220</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30614</v>
+        <v>31506</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3630571165602292</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2538182091215028</v>
+        <v>0.2556994770379545</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4826152593920222</v>
+        <v>0.4966786380812029</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>65</v>
@@ -4998,19 +4998,19 @@
         <v>66891</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>53914</v>
+        <v>53357</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>81331</v>
+        <v>79448</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3360897337631764</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2708858592799372</v>
+        <v>0.2680868761314695</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4086434877068097</v>
+        <v>0.3991795942733311</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>24200</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15989</v>
+        <v>15000</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34749</v>
+        <v>33540</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1784731090490126</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1179177288127097</v>
+        <v>0.1106234649423306</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2562734789583744</v>
+        <v>0.2473556458269336</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -5048,19 +5048,19 @@
         <v>23780</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16794</v>
+        <v>16482</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31607</v>
+        <v>32071</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3748718305730097</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.264749039218263</v>
+        <v>0.2598297534847046</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4982605979421443</v>
+        <v>0.505580677584566</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -5069,19 +5069,19 @@
         <v>47979</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37103</v>
+        <v>36855</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61045</v>
+        <v>60547</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2410690366512463</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1864218158248553</v>
+        <v>0.1851734558708087</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3067173480091946</v>
+        <v>0.3042173467609549</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>36760</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>27074</v>
+        <v>27099</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>49125</v>
+        <v>49591</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1703119021572353</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1254341091288272</v>
+        <v>0.1255497514592983</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2275993186137316</v>
+        <v>0.2297591043371899</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -5194,19 +5194,19 @@
         <v>9785</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5274</v>
+        <v>5206</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17104</v>
+        <v>17949</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09430488586369246</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05083106827068792</v>
+        <v>0.0501761346788167</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1648325003294356</v>
+        <v>0.172977774992451</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>46</v>
@@ -5215,19 +5215,19 @@
         <v>46545</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>34845</v>
+        <v>34738</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>60555</v>
+        <v>59466</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1456350775214254</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1090260184942685</v>
+        <v>0.1086909326041402</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1894702059858677</v>
+        <v>0.1860612962338611</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>57096</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45526</v>
+        <v>43855</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69961</v>
+        <v>71267</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2645313145340251</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2109251718318513</v>
+        <v>0.2031840619825369</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3241329049343117</v>
+        <v>0.3301879353010157</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -5265,19 +5265,19 @@
         <v>30628</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21508</v>
+        <v>21978</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40174</v>
+        <v>40801</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2951742641544934</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2072740787986057</v>
+        <v>0.2118065245827296</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3871689659887882</v>
+        <v>0.3932131071230668</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -5286,19 +5286,19 @@
         <v>87725</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>71930</v>
+        <v>72236</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103681</v>
+        <v>103711</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2744800104700408</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2250600606540081</v>
+        <v>0.2260194588876309</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3244056177927145</v>
+        <v>0.3244979096669151</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>75515</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>61094</v>
+        <v>61989</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>90457</v>
+        <v>90156</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3498672694304181</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.283053110094553</v>
+        <v>0.2871998683790891</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4190953851399632</v>
+        <v>0.417699255276431</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>31</v>
@@ -5336,19 +5336,19 @@
         <v>32412</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22755</v>
+        <v>23500</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42285</v>
+        <v>42493</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3123645348661286</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2192989262530462</v>
+        <v>0.2264748858791329</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4075068508660373</v>
+        <v>0.4095154949997303</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>98</v>
@@ -5357,19 +5357,19 @@
         <v>107927</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>89238</v>
+        <v>91703</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>124478</v>
+        <v>125238</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3376914408117525</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2792144831418504</v>
+        <v>0.2869290852775579</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3894759433864114</v>
+        <v>0.3918533418030153</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>46468</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35169</v>
+        <v>34724</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>59304</v>
+        <v>58042</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2152895138783215</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1629415901758483</v>
+        <v>0.1608769856317018</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2747590629633495</v>
+        <v>0.2689155046268303</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>32</v>
@@ -5407,19 +5407,19 @@
         <v>30938</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22897</v>
+        <v>22378</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>40415</v>
+        <v>40400</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2981563151156856</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2206670555040199</v>
+        <v>0.2156589109641153</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3894928933967053</v>
+        <v>0.3893494704390423</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>75</v>
@@ -5428,19 +5428,19 @@
         <v>77406</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>62780</v>
+        <v>62338</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>93596</v>
+        <v>94740</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2421934711967812</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1964315883176065</v>
+        <v>0.1950471055797899</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2928508617039828</v>
+        <v>0.2964305680749539</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>26465</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18001</v>
+        <v>17129</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36831</v>
+        <v>35742</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1831287356557544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1245587598786201</v>
+        <v>0.1185253693384733</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2548548055635008</v>
+        <v>0.2473236905152214</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -5553,19 +5553,19 @@
         <v>4244</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1089</v>
+        <v>1054</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10698</v>
+        <v>9671</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05165717852368244</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01325492939090953</v>
+        <v>0.01283272573922282</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1302005411842344</v>
+        <v>0.1177066122560984</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -5574,19 +5574,19 @@
         <v>30710</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21102</v>
+        <v>21178</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>42474</v>
+        <v>42449</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1354740999700035</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09309005991190414</v>
+        <v>0.09342721374471884</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1873700407750706</v>
+        <v>0.1872601417702881</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>35976</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>26572</v>
+        <v>26449</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>48123</v>
+        <v>47639</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2489363778978414</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1838690370462248</v>
+        <v>0.1830198339663267</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3329946905521898</v>
+        <v>0.3296435373278782</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>17</v>
@@ -5624,19 +5624,19 @@
         <v>18110</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11332</v>
+        <v>11524</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>26388</v>
+        <v>27438</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2204047261190588</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1379198370267715</v>
+        <v>0.1402568521746623</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3211548593858597</v>
+        <v>0.3339343554083408</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>51</v>
@@ -5645,19 +5645,19 @@
         <v>54085</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>41772</v>
+        <v>42275</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>68297</v>
+        <v>68378</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2385944796143616</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1842764488279952</v>
+        <v>0.1864944372934059</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3012889966954581</v>
+        <v>0.3016476338918628</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>41805</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30435</v>
+        <v>31099</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53550</v>
+        <v>54939</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2892711467186151</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2105997812660085</v>
+        <v>0.2151957350067271</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3705414716697925</v>
+        <v>0.3801530946995447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -5695,19 +5695,19 @@
         <v>38179</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30011</v>
+        <v>29537</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48440</v>
+        <v>47746</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4646627758938674</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3652426083322333</v>
+        <v>0.359480630264597</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5895360981191241</v>
+        <v>0.5810883580664509</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>75</v>
@@ -5716,19 +5716,19 @@
         <v>79984</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>64412</v>
+        <v>65875</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94107</v>
+        <v>95393</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3528455378112876</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.284150002420907</v>
+        <v>0.2906056320948333</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4151472811390892</v>
+        <v>0.4208231663713094</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>40272</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29314</v>
+        <v>30080</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>51236</v>
+        <v>53488</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.278663739727789</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2028413549813969</v>
+        <v>0.2081385873921338</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3545312946512445</v>
+        <v>0.3701170044582758</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -5766,19 +5766,19 @@
         <v>21632</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14017</v>
+        <v>14274</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29654</v>
+        <v>31027</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2632753194633914</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1705986151381961</v>
+        <v>0.1737188558569006</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3609007438715226</v>
+        <v>0.3776105364859467</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>59</v>
@@ -5787,19 +5787,19 @@
         <v>61904</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>49070</v>
+        <v>48947</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>76347</v>
+        <v>75748</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2730858826043474</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2164684968680356</v>
+        <v>0.2159251036216008</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3368007665487996</v>
+        <v>0.3341586842237321</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>36879</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26406</v>
+        <v>27352</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49014</v>
+        <v>47847</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1847297377822419</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1322692281385391</v>
+        <v>0.1370057517076912</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.245512896252835</v>
+        <v>0.2396701708742723</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6619</v>
+        <v>7761</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0164021444868186</v>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04966859882350437</v>
+        <v>0.05824095523686935</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>38</v>
@@ -5933,19 +5933,19 @@
         <v>39065</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27887</v>
+        <v>28983</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51098</v>
+        <v>53637</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1173474401731102</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08377115104967159</v>
+        <v>0.08706244222258822</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1534959493853571</v>
+        <v>0.1611200211926175</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>55164</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>43523</v>
+        <v>43477</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>67764</v>
+        <v>67380</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2763215191173319</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2180109934692505</v>
+        <v>0.2177807440644235</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3394330928850843</v>
+        <v>0.3375111447613468</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -5983,19 +5983,19 @@
         <v>32930</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22795</v>
+        <v>22558</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44077</v>
+        <v>44491</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2471125773650331</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1710532254412045</v>
+        <v>0.1692796262051694</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3307555708935082</v>
+        <v>0.3338642943703126</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>88</v>
@@ -6004,19 +6004,19 @@
         <v>88094</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>72556</v>
+        <v>72284</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>105367</v>
+        <v>105086</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2646290475060557</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2179535803123157</v>
+        <v>0.2171369017409341</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3165132180698422</v>
+        <v>0.3156706359030689</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>55741</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>42959</v>
+        <v>43856</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>69303</v>
+        <v>69103</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2792109074964377</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2151822037500584</v>
+        <v>0.219675301559716</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3471414899957139</v>
+        <v>0.3461416050929967</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>49</v>
@@ -6054,19 +6054,19 @@
         <v>53906</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>42040</v>
+        <v>42345</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>65406</v>
+        <v>65690</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.404513456622854</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3154690420038352</v>
+        <v>0.3177591116111664</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4908108515439209</v>
+        <v>0.4929450367844723</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>105</v>
@@ -6075,19 +6075,19 @@
         <v>109647</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>94156</v>
+        <v>92995</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>127474</v>
+        <v>126808</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.329370085151885</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2828360222293284</v>
+        <v>0.2793489379591078</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3829211811029174</v>
+        <v>0.3809208318272629</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>51854</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>40358</v>
+        <v>40339</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65950</v>
+        <v>65465</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2597378356039885</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2021553076087982</v>
+        <v>0.2020619190748532</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3303471735659009</v>
+        <v>0.3279198235967609</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -6125,19 +6125,19 @@
         <v>44239</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34284</v>
+        <v>33158</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57407</v>
+        <v>56071</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3319718215252943</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2572687862369523</v>
+        <v>0.2488219157926089</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4307856356336446</v>
+        <v>0.4207642335163423</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>89</v>
@@ -6146,19 +6146,19 @@
         <v>96092</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>79814</v>
+        <v>79292</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>114297</v>
+        <v>112806</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.288653427168949</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2397550085699885</v>
+        <v>0.2381866298336102</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3433381907227906</v>
+        <v>0.3388597633907756</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>128561</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>109375</v>
+        <v>108114</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>148364</v>
+        <v>149710</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1848241017403446</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1572418911535914</v>
+        <v>0.1554290715409765</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2132933888223362</v>
+        <v>0.215228551685032</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>20</v>
@@ -6271,19 +6271,19 @@
         <v>23165</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14937</v>
+        <v>14332</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>34677</v>
+        <v>35650</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06054126190911319</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03903775400368289</v>
+        <v>0.03745782605471942</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09063055540798838</v>
+        <v>0.09317221934721656</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>149</v>
@@ -6292,19 +6292,19 @@
         <v>151726</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>130986</v>
+        <v>130656</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>175917</v>
+        <v>177085</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.140719915730364</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.121484611207095</v>
+        <v>0.1211781769346193</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1631561719169058</v>
+        <v>0.1642397899505142</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>187312</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>164674</v>
+        <v>164082</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>210625</v>
+        <v>212465</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2692855216368479</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.236741695771163</v>
+        <v>0.2358906076698593</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3028012705537322</v>
+        <v>0.3054468819557877</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>83</v>
@@ -6342,19 +6342,19 @@
         <v>91344</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>74772</v>
+        <v>74314</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>110497</v>
+        <v>109297</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2387298793438447</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.195418009214027</v>
+        <v>0.19422293894887</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2887883851607289</v>
+        <v>0.2856510826269523</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>272</v>
@@ -6363,19 +6363,19 @@
         <v>278655</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>248924</v>
+        <v>248853</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>308566</v>
+        <v>309134</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2584422569256855</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2308674180101114</v>
+        <v>0.2308014009143292</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2861837445023867</v>
+        <v>0.2867097688438344</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>216922</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>188896</v>
+        <v>189969</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>239625</v>
+        <v>244320</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3118538789424917</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2715640014887248</v>
+        <v>0.2731057950474647</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3444932728065597</v>
+        <v>0.3512426798161484</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>140</v>
@@ -6413,19 +6413,19 @@
         <v>147527</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>128152</v>
+        <v>128798</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>166466</v>
+        <v>170260</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3855674025954204</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3349292546934833</v>
+        <v>0.3366164928061032</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4350631622015058</v>
+        <v>0.4449803291596165</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>343</v>
@@ -6434,19 +6434,19 @@
         <v>364449</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>332029</v>
+        <v>337190</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>395049</v>
+        <v>398307</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3380125583149186</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3079444782492491</v>
+        <v>0.3127309146767763</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3663925955661661</v>
+        <v>0.3694145166671713</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>162793</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>143915</v>
+        <v>141283</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>188253</v>
+        <v>185753</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2340364976803158</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2068965175451543</v>
+        <v>0.2031136499220758</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2706394286929741</v>
+        <v>0.2670454791690278</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>118</v>
@@ -6484,19 +6484,19 @@
         <v>120588</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>102146</v>
+        <v>103128</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>138095</v>
+        <v>139909</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3151614561516217</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2669612256824668</v>
+        <v>0.2695284961120149</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3609156501673641</v>
+        <v>0.3656569510912325</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>270</v>
@@ -6505,19 +6505,19 @@
         <v>283381</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>251397</v>
+        <v>255830</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>311132</v>
+        <v>315461</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2628252690290319</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2331613379109153</v>
+        <v>0.2372730898037181</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2885631249987764</v>
+        <v>0.2925783854420679</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>37774</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28955</v>
+        <v>29261</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47476</v>
+        <v>47096</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3100503522781562</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2376630298378116</v>
+        <v>0.2401718611158102</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3896828356858728</v>
+        <v>0.3865600514417575</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -6870,19 +6870,19 @@
         <v>8621</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4866</v>
+        <v>5241</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12972</v>
+        <v>13237</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1646665812790246</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09294997070483182</v>
+        <v>0.100114272187974</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2477764841847777</v>
+        <v>0.2528450216373671</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -6891,19 +6891,19 @@
         <v>46395</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36918</v>
+        <v>36443</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56629</v>
+        <v>58389</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2663549578611457</v>
+        <v>0.2663549578611456</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2119475828824617</v>
+        <v>0.2092213459930627</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3251076900138432</v>
+        <v>0.3352116204320788</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>47485</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38700</v>
+        <v>37489</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59419</v>
+        <v>57854</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3897574939560862</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.317646256060433</v>
+        <v>0.3077117133904463</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4877081377836863</v>
+        <v>0.4748652621601187</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -6941,19 +6941,19 @@
         <v>18159</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12869</v>
+        <v>12801</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24176</v>
+        <v>23968</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3468637788607439</v>
+        <v>0.3468637788607438</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2458217699355894</v>
+        <v>0.2445092637577207</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4617894754330805</v>
+        <v>0.4578229779197573</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>89</v>
@@ -6962,19 +6962,19 @@
         <v>65644</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53975</v>
+        <v>53571</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>76820</v>
+        <v>77355</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3768656987699986</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3098713600856349</v>
+        <v>0.3075538815363814</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4410276340070287</v>
+        <v>0.4440980757883938</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>23571</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15719</v>
+        <v>15774</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32405</v>
+        <v>32860</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1934719372221259</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1290226985847623</v>
+        <v>0.1294691984270358</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2659802473193474</v>
+        <v>0.2697126181871375</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -7012,19 +7012,19 @@
         <v>15704</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10845</v>
+        <v>10672</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22083</v>
+        <v>21899</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2999730073579869</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2071558974728001</v>
+        <v>0.2038444024632286</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4218175434005343</v>
+        <v>0.4183002549592868</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>50</v>
@@ -7033,19 +7033,19 @@
         <v>39275</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>29491</v>
+        <v>29990</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>50457</v>
+        <v>50740</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2254810551136129</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1693106725142329</v>
+        <v>0.1721736093932379</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2896739978261835</v>
+        <v>0.2912973167099131</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>13002</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7169</v>
+        <v>7366</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21117</v>
+        <v>20444</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1067202165436318</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05884380461721894</v>
+        <v>0.06045837773250146</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1733300685891363</v>
+        <v>0.1678062682484666</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -7083,19 +7083,19 @@
         <v>9868</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5670</v>
+        <v>5782</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14778</v>
+        <v>14688</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1884966325022445</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1083114425897335</v>
+        <v>0.110437699295682</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2822779361840639</v>
+        <v>0.2805671318580301</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -7104,19 +7104,19 @@
         <v>22870</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16000</v>
+        <v>14784</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33584</v>
+        <v>31641</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1312982882552429</v>
+        <v>0.1312982882552428</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09185593673784495</v>
+        <v>0.08487516824008871</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1928039926481066</v>
+        <v>0.1816491122406922</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>44404</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>35051</v>
+        <v>35084</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>57533</v>
+        <v>57452</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2613466883325249</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2062973578616157</v>
+        <v>0.2064933158531487</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3386159356013292</v>
+        <v>0.3381373112898792</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>28</v>
@@ -7229,19 +7229,19 @@
         <v>17849</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12341</v>
+        <v>12165</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24632</v>
+        <v>24165</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2035607004951856</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1407432784871135</v>
+        <v>0.1387349579055651</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2809234397759717</v>
+        <v>0.275599319793301</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>84</v>
@@ -7250,19 +7250,19 @@
         <v>62253</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>50179</v>
+        <v>50892</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>75516</v>
+        <v>74157</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.2416765457136861</v>
+        <v>0.2416765457136862</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1948032617307258</v>
+        <v>0.1975725971914838</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2931640933994306</v>
+        <v>0.2878909930662901</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>60343</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47802</v>
+        <v>48906</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73042</v>
+        <v>72329</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3551566164326421</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2813444855943846</v>
+        <v>0.2878390385978831</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4298956563265374</v>
+        <v>0.4257021112898774</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -7300,19 +7300,19 @@
         <v>23536</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16239</v>
+        <v>17614</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30754</v>
+        <v>30709</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2684268800811397</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1852067322143799</v>
+        <v>0.2008902160529519</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3507390631288301</v>
+        <v>0.3502285709665988</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>102</v>
@@ -7321,19 +7321,19 @@
         <v>83879</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70601</v>
+        <v>70573</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>97956</v>
+        <v>99302</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3256341258224533</v>
+        <v>0.3256341258224532</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2740860468919787</v>
+        <v>0.2739770367352726</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3802804673893971</v>
+        <v>0.3855073502509858</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>38775</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28519</v>
+        <v>28473</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51760</v>
+        <v>52388</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.228212187726056</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1678530058924493</v>
+        <v>0.1675813858044377</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3046404940058748</v>
+        <v>0.3083377021241326</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -7371,19 +7371,19 @@
         <v>17802</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12287</v>
+        <v>12288</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24414</v>
+        <v>25063</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2030277261174202</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1401350849647822</v>
+        <v>0.1401424112682044</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.278442331413715</v>
+        <v>0.285834236216849</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>66</v>
@@ -7392,19 +7392,19 @@
         <v>56576</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>44405</v>
+        <v>44541</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>69558</v>
+        <v>70387</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2196394874891927</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1723872551243765</v>
+        <v>0.1729152924900655</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2700339764624961</v>
+        <v>0.2732545828353403</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>26384</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17961</v>
+        <v>18457</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37113</v>
+        <v>37050</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.155284507508777</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1057105946000163</v>
+        <v>0.1086318948954689</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.218433935881271</v>
+        <v>0.2180604497217683</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>38</v>
@@ -7442,19 +7442,19 @@
         <v>28495</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21883</v>
+        <v>21592</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36745</v>
+        <v>37275</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3249846933062546</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2495767634849409</v>
+        <v>0.2462512671100889</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4190738419113963</v>
+        <v>0.4251139971213461</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>66</v>
@@ -7463,19 +7463,19 @@
         <v>54879</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>44078</v>
+        <v>42364</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>67945</v>
+        <v>68262</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2130498409746678</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1711174543168912</v>
+        <v>0.1644647600112816</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2637732145000696</v>
+        <v>0.2650064198279624</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>48545</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37297</v>
+        <v>37308</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58810</v>
+        <v>59772</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2962845459199178</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2276334637821328</v>
+        <v>0.2277015327098078</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.358932091838507</v>
+        <v>0.3648047563619067</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -7588,19 +7588,19 @@
         <v>15587</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10445</v>
+        <v>10513</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22237</v>
+        <v>22301</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.187763400278214</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1258249519868489</v>
+        <v>0.1266458176309514</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2678755660633724</v>
+        <v>0.2686366213202719</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>79</v>
@@ -7609,19 +7609,19 @@
         <v>64133</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>51609</v>
+        <v>52715</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>77531</v>
+        <v>78413</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2597911715945855</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2090595103796954</v>
+        <v>0.2135386788023501</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3140666928916538</v>
+        <v>0.3176406376817637</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>43978</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>33202</v>
+        <v>33847</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>55851</v>
+        <v>54913</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2684081983822795</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2026380889730406</v>
+        <v>0.206577496637247</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3408741834544972</v>
+        <v>0.3351465477881899</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>31</v>
@@ -7659,19 +7659,19 @@
         <v>21435</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>15133</v>
+        <v>14878</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>28422</v>
+        <v>28682</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.258208774224289</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1822970635221266</v>
+        <v>0.1792286740704134</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3423774159910254</v>
+        <v>0.3455110129335357</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>77</v>
@@ -7680,19 +7680,19 @@
         <v>65413</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>52302</v>
+        <v>53709</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>78920</v>
+        <v>79967</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2649783469786712</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2118670230638757</v>
+        <v>0.2175678661538944</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3196911047584777</v>
+        <v>0.3239356223275592</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>42628</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31857</v>
+        <v>31992</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55283</v>
+        <v>54416</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2601691534233461</v>
+        <v>0.260169153423346</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1944320362001018</v>
+        <v>0.1952582374264072</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3374056177044191</v>
+        <v>0.3321142523411045</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -7730,19 +7730,19 @@
         <v>24088</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16562</v>
+        <v>17049</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32744</v>
+        <v>32317</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2901659017634673</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1995026922160522</v>
+        <v>0.2053803372882508</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3944337994437428</v>
+        <v>0.3892953798722613</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>69</v>
@@ -7751,19 +7751,19 @@
         <v>66716</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>54370</v>
+        <v>52639</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>81755</v>
+        <v>80229</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2702564277443624</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2202436950624046</v>
+        <v>0.2132318222743031</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3311758882603085</v>
+        <v>0.3249969885872047</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>28696</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18215</v>
+        <v>18430</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41846</v>
+        <v>41434</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1751381022744567</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1111681890984528</v>
+        <v>0.112483514750208</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2553979423307609</v>
+        <v>0.2528852256070829</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -7801,19 +7801,19 @@
         <v>21904</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14771</v>
+        <v>14846</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30678</v>
+        <v>30188</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2638619237340296</v>
+        <v>0.2638619237340295</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1779352753193848</v>
+        <v>0.1788348991084544</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3695538145239045</v>
+        <v>0.3636507735383347</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>46</v>
@@ -7822,19 +7822,19 @@
         <v>50600</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38365</v>
+        <v>38199</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>67352</v>
+        <v>65094</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2049740536823809</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1554110585323998</v>
+        <v>0.154737692572917</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2728322318987909</v>
+        <v>0.2636873384964828</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>57309</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>46434</v>
+        <v>45933</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>69192</v>
+        <v>68728</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2901658386883801</v>
+        <v>0.29016583868838</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2351016179406809</v>
+        <v>0.2325649423497332</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3503299032219671</v>
+        <v>0.3479829333202208</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -7947,19 +7947,19 @@
         <v>31533</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24436</v>
+        <v>24281</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39484</v>
+        <v>40012</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2304083288404364</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1785494062843694</v>
+        <v>0.1774170595991811</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2884983752136734</v>
+        <v>0.2923591462290878</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>133</v>
@@ -7968,19 +7968,19 @@
         <v>88843</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>76249</v>
+        <v>76533</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>103223</v>
+        <v>102154</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2657064286522161</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2280405013780961</v>
+        <v>0.2288899901126369</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3087135115010692</v>
+        <v>0.3055165031177109</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>58051</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>46839</v>
+        <v>46882</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>69746</v>
+        <v>70077</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2939223082885225</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2371548838051648</v>
+        <v>0.2373696200844213</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3531346798148111</v>
+        <v>0.3548099081346813</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>54</v>
@@ -8018,19 +8018,19 @@
         <v>34972</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27444</v>
+        <v>27738</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43454</v>
+        <v>43351</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2555338710560435</v>
+        <v>0.2555338710560436</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.200528130753395</v>
+        <v>0.202675006754947</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3175101819493715</v>
+        <v>0.3167548438346167</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>124</v>
@@ -8039,19 +8039,19 @@
         <v>93023</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>79703</v>
+        <v>79427</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>108898</v>
+        <v>108164</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2782094961364435</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.238373446998882</v>
+        <v>0.2375471020694368</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3256865980425517</v>
+        <v>0.3234916416694896</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>48814</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>38061</v>
+        <v>38051</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>62046</v>
+        <v>61683</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2471517727717258</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1927088163253536</v>
+        <v>0.1926576409211856</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3141512906918522</v>
+        <v>0.3123129024524423</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>51</v>
@@ -8089,19 +8089,19 @@
         <v>33849</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>25710</v>
+        <v>26243</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>42791</v>
+        <v>42929</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2473271706224983</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1878563794608082</v>
+        <v>0.1917492445721908</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3126621328716001</v>
+        <v>0.3136708560021407</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>106</v>
@@ -8110,19 +8110,19 @@
         <v>82663</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>69401</v>
+        <v>69894</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>98904</v>
+        <v>99192</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2472235650529374</v>
+        <v>0.2472235650529373</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2075621127691519</v>
+        <v>0.2090351443832761</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2957985320786891</v>
+        <v>0.2966576854740599</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>33331</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24279</v>
+        <v>23893</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45964</v>
+        <v>46008</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1687600802513715</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1229296679115053</v>
+        <v>0.1209763201689326</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2327224787923042</v>
+        <v>0.2329480614994472</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -8160,19 +8160,19 @@
         <v>36504</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27493</v>
+        <v>27207</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48136</v>
+        <v>45847</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2667306294810217</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2008854159504971</v>
+        <v>0.1987965250656979</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3517171542163732</v>
+        <v>0.3349972215150322</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>79</v>
@@ -8181,19 +8181,19 @@
         <v>69835</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>56385</v>
+        <v>57090</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>85703</v>
+        <v>84650</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2088605101584029</v>
+        <v>0.2088605101584028</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1686337626230709</v>
+        <v>0.170741888046447</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.256317394700171</v>
+        <v>0.2531665838172231</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>188034</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>167770</v>
+        <v>169901</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>209664</v>
+        <v>210728</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.287912832569321</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2568864270829407</v>
+        <v>0.2601480302809109</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3210335307784276</v>
+        <v>0.3226616858546793</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>118</v>
@@ -8306,19 +8306,19 @@
         <v>73590</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>62777</v>
+        <v>62111</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>85762</v>
+        <v>85735</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.204468606275693</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1744267119035183</v>
+        <v>0.1725751658519932</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2382885242578674</v>
+        <v>0.2382130808182446</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>365</v>
@@ -8327,19 +8327,19 @@
         <v>261623</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>236618</v>
+        <v>237166</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>288458</v>
+        <v>286466</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2582660441842101</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2335816751640253</v>
+        <v>0.2341226354119335</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2847561435105281</v>
+        <v>0.2827903666221738</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>209858</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>186003</v>
+        <v>186043</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>232401</v>
+        <v>232122</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3213297628757133</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2848030407936449</v>
+        <v>0.2848645355729745</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3558466046986683</v>
+        <v>0.3554201399357269</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>149</v>
@@ -8377,19 +8377,19 @@
         <v>98102</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>84699</v>
+        <v>84351</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>111457</v>
+        <v>112550</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2725766442972506</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2353369664581101</v>
+        <v>0.2343702547492851</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.309683639714041</v>
+        <v>0.3127207312962301</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>392</v>
@@ -8398,19 +8398,19 @@
         <v>307960</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>281070</v>
+        <v>284029</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>336023</v>
+        <v>336116</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3040083320972212</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2774632199844577</v>
+        <v>0.2803841954086169</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.331711336306031</v>
+        <v>0.331802965183181</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>153788</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>132891</v>
+        <v>132677</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>174965</v>
+        <v>175238</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2354764139190729</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2034796202437172</v>
+        <v>0.2031528463571733</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2679027771926336</v>
+        <v>0.2683204344404055</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>128</v>
@@ -8448,19 +8448,19 @@
         <v>91443</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>77088</v>
+        <v>78426</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>106631</v>
+        <v>107529</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2540735210848665</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2141889518196758</v>
+        <v>0.2179068426332005</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.296273661778937</v>
+        <v>0.2987689293839219</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>291</v>
@@ -8469,19 +8469,19 @@
         <v>245231</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>219195</v>
+        <v>220878</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>268315</v>
+        <v>272513</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2420837554357815</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.216382560745723</v>
+        <v>0.2180433608112349</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2648720612946304</v>
+        <v>0.2690157560437102</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>101413</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>83319</v>
+        <v>82660</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>122456</v>
+        <v>121819</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1552809906358928</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1275767917852418</v>
+        <v>0.1265673933661295</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1875025410583235</v>
+        <v>0.1865264721875296</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>122</v>
@@ -8519,19 +8519,19 @@
         <v>96772</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>81768</v>
+        <v>82151</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>112371</v>
+        <v>114159</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2688812283421897</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2271923559926061</v>
+        <v>0.2282558521993859</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3122210453938706</v>
+        <v>0.3171903113974662</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>221</v>
@@ -8540,19 +8540,19 @@
         <v>198185</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>173290</v>
+        <v>175719</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>226950</v>
+        <v>227045</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1956418682827873</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1710660767008779</v>
+        <v>0.1734642842021262</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2240380353180568</v>
+        <v>0.2241318849962466</v>
       </c>
     </row>
     <row r="28">
